--- a/SCCO.xlsx
+++ b/SCCO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431C7F81-B75D-4282-9A43-72EF28001978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607944AF-1BB1-41DA-91BC-66FC1BF0B6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{23A00BC7-6774-4745-8F6D-B2DE1A520CC2}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{23A00BC7-6774-4745-8F6D-B2DE1A520CC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -203,10 +203,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00;\(#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,14 +215,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -236,6 +234,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -257,22 +269,22 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -611,44 +623,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E0A335-0ABE-4405-914A-E996F5EA7EAF}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>102.1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="3">
         <v>796.186105</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="3">
@@ -656,32 +669,32 @@
         <v>81290.601320499991</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="3">
         <f>4116.3+218.2</f>
         <v>4334.5</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="3">
         <f>500+6747</f>
         <v>7247</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="3">
@@ -699,51 +712,52 @@
   <dimension ref="A1:BE560"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="XEP3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="6">
@@ -806,8 +820,8 @@
       <c r="BD3" s="3"/>
       <c r="BE3" s="3"/>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="3">
@@ -870,8 +884,8 @@
       <c r="BD4" s="3"/>
       <c r="BE4" s="3"/>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="3">
@@ -934,8 +948,8 @@
       <c r="BD5" s="3"/>
       <c r="BE5" s="3"/>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="3">
@@ -998,8 +1012,8 @@
       <c r="BD6" s="3"/>
       <c r="BE6" s="3"/>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="3">
@@ -1062,8 +1076,8 @@
       <c r="BD7" s="3"/>
       <c r="BE7" s="3"/>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="3">
@@ -1126,7 +1140,7 @@
       <c r="BD8" s="3"/>
       <c r="BE8" s="3"/>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1183,8 +1197,8 @@
       <c r="BD9" s="3"/>
       <c r="BE9" s="3"/>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="3">
@@ -1247,8 +1261,8 @@
       <c r="BD10" s="3"/>
       <c r="BE10" s="3"/>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="3">
@@ -1311,8 +1325,8 @@
       <c r="BD11" s="3"/>
       <c r="BE11" s="3"/>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="3">
@@ -1375,8 +1389,8 @@
       <c r="BD12" s="3"/>
       <c r="BE12" s="3"/>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="3">
@@ -1439,8 +1453,8 @@
       <c r="BD13" s="3"/>
       <c r="BE13" s="3"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="3">
@@ -1503,72 +1517,72 @@
       <c r="BD14" s="3"/>
       <c r="BE14" s="3"/>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="7">
         <v>2599.8000000000002</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7">
         <v>3121.9</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="5"/>
-      <c r="AS15" s="5"/>
-      <c r="AT15" s="5"/>
-      <c r="AU15" s="5"/>
-      <c r="AV15" s="5"/>
-      <c r="AW15" s="5"/>
-      <c r="AX15" s="5"/>
-      <c r="AY15" s="5"/>
-      <c r="AZ15" s="5"/>
-      <c r="BA15" s="5"/>
-      <c r="BB15" s="5"/>
-      <c r="BC15" s="5"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="7"/>
+      <c r="AP15" s="7"/>
+      <c r="AQ15" s="7"/>
+      <c r="AR15" s="7"/>
+      <c r="AS15" s="7"/>
+      <c r="AT15" s="7"/>
+      <c r="AU15" s="7"/>
+      <c r="AV15" s="7"/>
+      <c r="AW15" s="7"/>
+      <c r="AX15" s="7"/>
+      <c r="AY15" s="7"/>
+      <c r="AZ15" s="7"/>
+      <c r="BA15" s="7"/>
+      <c r="BB15" s="7"/>
+      <c r="BC15" s="7"/>
       <c r="BD15" s="3"/>
       <c r="BE15" s="3"/>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="3">
@@ -1631,8 +1645,8 @@
       <c r="BD16" s="3"/>
       <c r="BE16" s="3"/>
     </row>
-    <row r="17" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="3">
@@ -1715,8 +1729,8 @@
       <c r="BD17" s="3"/>
       <c r="BE17" s="3"/>
     </row>
-    <row r="18" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="3">
@@ -1779,8 +1793,8 @@
       <c r="BD18" s="3"/>
       <c r="BE18" s="3"/>
     </row>
-    <row r="19" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="3">
@@ -1843,8 +1857,8 @@
       <c r="BD19" s="3"/>
       <c r="BE19" s="3"/>
     </row>
-    <row r="20" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="3">
@@ -1907,8 +1921,8 @@
       <c r="BD20" s="3"/>
       <c r="BE20" s="3"/>
     </row>
-    <row r="21" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="3">
@@ -1991,8 +2005,8 @@
       <c r="BD21" s="3"/>
       <c r="BE21" s="3"/>
     </row>
-    <row r="22" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="3">
@@ -2055,8 +2069,8 @@
       <c r="BD22" s="3"/>
       <c r="BE22" s="3"/>
     </row>
-    <row r="23" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="3">
@@ -2119,8 +2133,8 @@
       <c r="BD23" s="3"/>
       <c r="BE23" s="3"/>
     </row>
-    <row r="24" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="3">
@@ -2183,8 +2197,8 @@
       <c r="BD24" s="3"/>
       <c r="BE24" s="3"/>
     </row>
-    <row r="25" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="3">
@@ -2247,8 +2261,8 @@
       <c r="BD25" s="3"/>
       <c r="BE25" s="3"/>
     </row>
-    <row r="26" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="3">
@@ -2331,8 +2345,8 @@
       <c r="BD26" s="3"/>
       <c r="BE26" s="3"/>
     </row>
-    <row r="27" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="3">
@@ -2395,8 +2409,8 @@
       <c r="BD27" s="3"/>
       <c r="BE27" s="3"/>
     </row>
-    <row r="28" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="3">
@@ -2461,8 +2475,8 @@
       <c r="BD28" s="3"/>
       <c r="BE28" s="3"/>
     </row>
-    <row r="29" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="3">
@@ -2545,7 +2559,7 @@
       <c r="BD29" s="3"/>
       <c r="BE29" s="3"/>
     </row>
-    <row r="30" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:57" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2602,8 +2616,8 @@
       <c r="BD30" s="3"/>
       <c r="BE30" s="3"/>
     </row>
-    <row r="31" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="6">
@@ -2686,8 +2700,8 @@
       <c r="BD31" s="3"/>
       <c r="BE31" s="3"/>
     </row>
-    <row r="32" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="3">
@@ -2750,7 +2764,7 @@
       <c r="BD32" s="3"/>
       <c r="BE32" s="3"/>
     </row>
-    <row r="33" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:57" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2807,27 +2821,27 @@
       <c r="BD33" s="3"/>
       <c r="BE33" s="3"/>
     </row>
-    <row r="34" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="9">
+      <c r="G34" s="8">
         <f t="shared" ref="G34:G37" si="14">+G10/C10-1</f>
         <v>0.18999853207417905</v>
       </c>
-      <c r="H34" s="9" t="e">
+      <c r="H34" s="8" t="e">
         <f t="shared" ref="H34:H38" si="15">+H10/D10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="9" t="e">
+      <c r="I34" s="8" t="e">
         <f t="shared" ref="I34:I38" si="16">+I10/E10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" s="9" t="e">
+      <c r="J34" s="8" t="e">
         <f t="shared" ref="J34:J38" si="17">+J10/F10-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -2879,27 +2893,27 @@
       <c r="BD34" s="3"/>
       <c r="BE34" s="3"/>
     </row>
-    <row r="35" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="9">
+      <c r="G35" s="8">
         <f t="shared" si="14"/>
         <v>9.8318713450292305E-2</v>
       </c>
-      <c r="H35" s="9" t="e">
+      <c r="H35" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="9" t="e">
+      <c r="I35" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="9" t="e">
+      <c r="J35" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -2951,27 +2965,27 @@
       <c r="BD35" s="3"/>
       <c r="BE35" s="3"/>
     </row>
-    <row r="36" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="9">
+      <c r="G36" s="8">
         <f t="shared" si="14"/>
         <v>0.58243727598566308</v>
       </c>
-      <c r="H36" s="9" t="e">
+      <c r="H36" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="9" t="e">
+      <c r="I36" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J36" s="9" t="e">
+      <c r="J36" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3023,27 +3037,27 @@
       <c r="BD36" s="3"/>
       <c r="BE36" s="3"/>
     </row>
-    <row r="37" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="9">
+      <c r="G37" s="8">
         <f t="shared" si="14"/>
         <v>0.58915834522111288</v>
       </c>
-      <c r="H37" s="9" t="e">
+      <c r="H37" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I37" s="9" t="e">
+      <c r="I37" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J37" s="9" t="e">
+      <c r="J37" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3095,27 +3109,27 @@
       <c r="BD37" s="3"/>
       <c r="BE37" s="3"/>
     </row>
-    <row r="38" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="9">
+      <c r="G38" s="8">
         <f>+G14/C14-1</f>
         <v>5.9523809523809312E-3</v>
       </c>
-      <c r="H38" s="9" t="e">
+      <c r="H38" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="9" t="e">
+      <c r="I38" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J38" s="9" t="e">
+      <c r="J38" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3167,7 +3181,7 @@
       <c r="BD38" s="3"/>
       <c r="BE38" s="3"/>
     </row>
-    <row r="39" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>49</v>
       </c>
@@ -3175,19 +3189,19 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="8">
+      <c r="G39" s="9">
         <f>+G15/C15-1</f>
         <v>0.20082314024155701</v>
       </c>
-      <c r="H39" s="8" t="e">
+      <c r="H39" s="9" t="e">
         <f t="shared" ref="H39:J39" si="18">+H15/D15-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="8" t="e">
+      <c r="I39" s="9" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J39" s="8" t="e">
+      <c r="J39" s="9" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
@@ -3239,39 +3253,39 @@
       <c r="BD39" s="3"/>
       <c r="BE39" s="3"/>
     </row>
-    <row r="40" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="40" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="7">
-        <f t="shared" ref="C40:G40" si="19">+C17/C15</f>
+      <c r="C40" s="8">
+        <f t="shared" ref="C40:F40" si="19">+C17/C15</f>
         <v>0.55473497961381646</v>
       </c>
-      <c r="D40" s="7" t="e">
+      <c r="D40" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="7" t="e">
+      <c r="E40" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F40" s="7" t="e">
+      <c r="F40" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="8">
         <f>+G17/G15</f>
         <v>0.57743681732278418</v>
       </c>
-      <c r="H40" s="7" t="e">
+      <c r="H40" s="8" t="e">
         <f t="shared" ref="H40:I40" si="20">+H17/H15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="7" t="e">
+      <c r="I40" s="8" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J40" s="7" t="e">
+      <c r="J40" s="8" t="e">
         <f t="shared" ref="J40" si="21">+J17/J15</f>
         <v>#DIV/0!</v>
       </c>
@@ -3323,39 +3337,39 @@
       <c r="BD40" s="3"/>
       <c r="BE40" s="3"/>
     </row>
-    <row r="41" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="41" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="7">
-        <f t="shared" ref="C41:G41" si="22">+C21/C15</f>
+      <c r="C41" s="8">
+        <f t="shared" ref="C41:F41" si="22">+C21/C15</f>
         <v>0.45761212400953927</v>
       </c>
-      <c r="D41" s="7" t="e">
+      <c r="D41" s="8" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="7" t="e">
+      <c r="E41" s="8" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F41" s="7" t="e">
+      <c r="F41" s="8" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="8">
         <f>+G21/G15</f>
         <v>0.49184791312982479</v>
       </c>
-      <c r="H41" s="7" t="e">
+      <c r="H41" s="8" t="e">
         <f t="shared" ref="H41:I41" si="23">+H21/H15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="7" t="e">
+      <c r="I41" s="8" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="7" t="e">
+      <c r="J41" s="8" t="e">
         <f t="shared" ref="J41" si="24">+J21/J15</f>
         <v>#DIV/0!</v>
       </c>
@@ -3407,39 +3421,39 @@
       <c r="BD41" s="3"/>
       <c r="BE41" s="3"/>
     </row>
-    <row r="42" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="42" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="7">
-        <f t="shared" ref="C42:G42" si="25">+C27/C26</f>
+      <c r="C42" s="8">
+        <f t="shared" ref="C42:F42" si="25">+C27/C26</f>
         <v>0.36642146257031577</v>
       </c>
-      <c r="D42" s="7" t="e">
+      <c r="D42" s="8" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E42" s="7" t="e">
+      <c r="E42" s="8" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F42" s="7" t="e">
+      <c r="F42" s="8" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="8">
         <f>+G27/G26</f>
         <v>0.3603408629784931</v>
       </c>
-      <c r="H42" s="7" t="e">
+      <c r="H42" s="8" t="e">
         <f t="shared" ref="H42:I42" si="26">+H27/H26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I42" s="7" t="e">
+      <c r="I42" s="8" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J42" s="7" t="e">
+      <c r="J42" s="8" t="e">
         <f t="shared" ref="J42" si="27">+J27/J26</f>
         <v>#DIV/0!</v>
       </c>
@@ -3491,7 +3505,7 @@
       <c r="BD42" s="3"/>
       <c r="BE42" s="3"/>
     </row>
-    <row r="43" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:57" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -3548,7 +3562,7 @@
       <c r="BD43" s="3"/>
       <c r="BE43" s="3"/>
     </row>
-    <row r="44" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:57" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3605,7 +3619,7 @@
       <c r="BD44" s="3"/>
       <c r="BE44" s="3"/>
     </row>
-    <row r="45" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:57" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3662,7 +3676,7 @@
       <c r="BD45" s="3"/>
       <c r="BE45" s="3"/>
     </row>
-    <row r="46" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:57" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3719,7 +3733,7 @@
       <c r="BD46" s="3"/>
       <c r="BE46" s="3"/>
     </row>
-    <row r="47" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:57" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3776,7 +3790,7 @@
       <c r="BD47" s="3"/>
       <c r="BE47" s="3"/>
     </row>
-    <row r="48" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:57" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -3833,7 +3847,7 @@
       <c r="BD48" s="3"/>
       <c r="BE48" s="3"/>
     </row>
-    <row r="49" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3890,7 +3904,7 @@
       <c r="BD49" s="3"/>
       <c r="BE49" s="3"/>
     </row>
-    <row r="50" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -3947,7 +3961,7 @@
       <c r="BD50" s="3"/>
       <c r="BE50" s="3"/>
     </row>
-    <row r="51" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -4004,7 +4018,7 @@
       <c r="BD51" s="3"/>
       <c r="BE51" s="3"/>
     </row>
-    <row r="52" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -4061,7 +4075,7 @@
       <c r="BD52" s="3"/>
       <c r="BE52" s="3"/>
     </row>
-    <row r="53" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -4118,7 +4132,7 @@
       <c r="BD53" s="3"/>
       <c r="BE53" s="3"/>
     </row>
-    <row r="54" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -4175,7 +4189,7 @@
       <c r="BD54" s="3"/>
       <c r="BE54" s="3"/>
     </row>
-    <row r="55" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -4232,7 +4246,7 @@
       <c r="BD55" s="3"/>
       <c r="BE55" s="3"/>
     </row>
-    <row r="56" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4289,7 +4303,7 @@
       <c r="BD56" s="3"/>
       <c r="BE56" s="3"/>
     </row>
-    <row r="57" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -4346,7 +4360,7 @@
       <c r="BD57" s="3"/>
       <c r="BE57" s="3"/>
     </row>
-    <row r="58" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -4403,7 +4417,7 @@
       <c r="BD58" s="3"/>
       <c r="BE58" s="3"/>
     </row>
-    <row r="59" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -4460,7 +4474,7 @@
       <c r="BD59" s="3"/>
       <c r="BE59" s="3"/>
     </row>
-    <row r="60" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -4517,7 +4531,7 @@
       <c r="BD60" s="3"/>
       <c r="BE60" s="3"/>
     </row>
-    <row r="61" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -4574,7 +4588,7 @@
       <c r="BD61" s="3"/>
       <c r="BE61" s="3"/>
     </row>
-    <row r="62" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -4631,7 +4645,7 @@
       <c r="BD62" s="3"/>
       <c r="BE62" s="3"/>
     </row>
-    <row r="63" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -4688,7 +4702,7 @@
       <c r="BD63" s="3"/>
       <c r="BE63" s="3"/>
     </row>
-    <row r="64" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -4745,7 +4759,7 @@
       <c r="BD64" s="3"/>
       <c r="BE64" s="3"/>
     </row>
-    <row r="65" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -4802,7 +4816,7 @@
       <c r="BD65" s="3"/>
       <c r="BE65" s="3"/>
     </row>
-    <row r="66" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4859,7 +4873,7 @@
       <c r="BD66" s="3"/>
       <c r="BE66" s="3"/>
     </row>
-    <row r="67" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -4916,7 +4930,7 @@
       <c r="BD67" s="3"/>
       <c r="BE67" s="3"/>
     </row>
-    <row r="68" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -4973,7 +4987,7 @@
       <c r="BD68" s="3"/>
       <c r="BE68" s="3"/>
     </row>
-    <row r="69" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -5030,7 +5044,7 @@
       <c r="BD69" s="3"/>
       <c r="BE69" s="3"/>
     </row>
-    <row r="70" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -5087,7 +5101,7 @@
       <c r="BD70" s="3"/>
       <c r="BE70" s="3"/>
     </row>
-    <row r="71" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -5144,7 +5158,7 @@
       <c r="BD71" s="3"/>
       <c r="BE71" s="3"/>
     </row>
-    <row r="72" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -5201,7 +5215,7 @@
       <c r="BD72" s="3"/>
       <c r="BE72" s="3"/>
     </row>
-    <row r="73" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -5258,7 +5272,7 @@
       <c r="BD73" s="3"/>
       <c r="BE73" s="3"/>
     </row>
-    <row r="74" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -5315,7 +5329,7 @@
       <c r="BD74" s="3"/>
       <c r="BE74" s="3"/>
     </row>
-    <row r="75" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -5372,7 +5386,7 @@
       <c r="BD75" s="3"/>
       <c r="BE75" s="3"/>
     </row>
-    <row r="76" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -5429,7 +5443,7 @@
       <c r="BD76" s="3"/>
       <c r="BE76" s="3"/>
     </row>
-    <row r="77" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5486,7 +5500,7 @@
       <c r="BD77" s="3"/>
       <c r="BE77" s="3"/>
     </row>
-    <row r="78" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5543,7 +5557,7 @@
       <c r="BD78" s="3"/>
       <c r="BE78" s="3"/>
     </row>
-    <row r="79" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5600,7 +5614,7 @@
       <c r="BD79" s="3"/>
       <c r="BE79" s="3"/>
     </row>
-    <row r="80" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -5657,7 +5671,7 @@
       <c r="BD80" s="3"/>
       <c r="BE80" s="3"/>
     </row>
-    <row r="81" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -5714,7 +5728,7 @@
       <c r="BD81" s="3"/>
       <c r="BE81" s="3"/>
     </row>
-    <row r="82" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -5771,7 +5785,7 @@
       <c r="BD82" s="3"/>
       <c r="BE82" s="3"/>
     </row>
-    <row r="83" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -5828,7 +5842,7 @@
       <c r="BD83" s="3"/>
       <c r="BE83" s="3"/>
     </row>
-    <row r="84" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -5885,7 +5899,7 @@
       <c r="BD84" s="3"/>
       <c r="BE84" s="3"/>
     </row>
-    <row r="85" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -5942,7 +5956,7 @@
       <c r="BD85" s="3"/>
       <c r="BE85" s="3"/>
     </row>
-    <row r="86" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -5999,7 +6013,7 @@
       <c r="BD86" s="3"/>
       <c r="BE86" s="3"/>
     </row>
-    <row r="87" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -6056,7 +6070,7 @@
       <c r="BD87" s="3"/>
       <c r="BE87" s="3"/>
     </row>
-    <row r="88" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -6113,7 +6127,7 @@
       <c r="BD88" s="3"/>
       <c r="BE88" s="3"/>
     </row>
-    <row r="89" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -6170,7 +6184,7 @@
       <c r="BD89" s="3"/>
       <c r="BE89" s="3"/>
     </row>
-    <row r="90" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -6227,7 +6241,7 @@
       <c r="BD90" s="3"/>
       <c r="BE90" s="3"/>
     </row>
-    <row r="91" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -6284,7 +6298,7 @@
       <c r="BD91" s="3"/>
       <c r="BE91" s="3"/>
     </row>
-    <row r="92" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -6341,7 +6355,7 @@
       <c r="BD92" s="3"/>
       <c r="BE92" s="3"/>
     </row>
-    <row r="93" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -6398,7 +6412,7 @@
       <c r="BD93" s="3"/>
       <c r="BE93" s="3"/>
     </row>
-    <row r="94" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -6455,7 +6469,7 @@
       <c r="BD94" s="3"/>
       <c r="BE94" s="3"/>
     </row>
-    <row r="95" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -6512,7 +6526,7 @@
       <c r="BD95" s="3"/>
       <c r="BE95" s="3"/>
     </row>
-    <row r="96" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -6569,7 +6583,7 @@
       <c r="BD96" s="3"/>
       <c r="BE96" s="3"/>
     </row>
-    <row r="97" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -6626,7 +6640,7 @@
       <c r="BD97" s="3"/>
       <c r="BE97" s="3"/>
     </row>
-    <row r="98" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -6683,7 +6697,7 @@
       <c r="BD98" s="3"/>
       <c r="BE98" s="3"/>
     </row>
-    <row r="99" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -6740,7 +6754,7 @@
       <c r="BD99" s="3"/>
       <c r="BE99" s="3"/>
     </row>
-    <row r="100" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -6797,7 +6811,7 @@
       <c r="BD100" s="3"/>
       <c r="BE100" s="3"/>
     </row>
-    <row r="101" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -6854,7 +6868,7 @@
       <c r="BD101" s="3"/>
       <c r="BE101" s="3"/>
     </row>
-    <row r="102" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -6911,7 +6925,7 @@
       <c r="BD102" s="3"/>
       <c r="BE102" s="3"/>
     </row>
-    <row r="103" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -6968,7 +6982,7 @@
       <c r="BD103" s="3"/>
       <c r="BE103" s="3"/>
     </row>
-    <row r="104" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -7025,7 +7039,7 @@
       <c r="BD104" s="3"/>
       <c r="BE104" s="3"/>
     </row>
-    <row r="105" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -7082,7 +7096,7 @@
       <c r="BD105" s="3"/>
       <c r="BE105" s="3"/>
     </row>
-    <row r="106" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -7139,7 +7153,7 @@
       <c r="BD106" s="3"/>
       <c r="BE106" s="3"/>
     </row>
-    <row r="107" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -7196,7 +7210,7 @@
       <c r="BD107" s="3"/>
       <c r="BE107" s="3"/>
     </row>
-    <row r="108" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -7253,7 +7267,7 @@
       <c r="BD108" s="3"/>
       <c r="BE108" s="3"/>
     </row>
-    <row r="109" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -7310,7 +7324,7 @@
       <c r="BD109" s="3"/>
       <c r="BE109" s="3"/>
     </row>
-    <row r="110" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -7367,7 +7381,7 @@
       <c r="BD110" s="3"/>
       <c r="BE110" s="3"/>
     </row>
-    <row r="111" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -7424,7 +7438,7 @@
       <c r="BD111" s="3"/>
       <c r="BE111" s="3"/>
     </row>
-    <row r="112" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -7481,7 +7495,7 @@
       <c r="BD112" s="3"/>
       <c r="BE112" s="3"/>
     </row>
-    <row r="113" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -7538,7 +7552,7 @@
       <c r="BD113" s="3"/>
       <c r="BE113" s="3"/>
     </row>
-    <row r="114" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -7595,7 +7609,7 @@
       <c r="BD114" s="3"/>
       <c r="BE114" s="3"/>
     </row>
-    <row r="115" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -7652,7 +7666,7 @@
       <c r="BD115" s="3"/>
       <c r="BE115" s="3"/>
     </row>
-    <row r="116" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -7709,7 +7723,7 @@
       <c r="BD116" s="3"/>
       <c r="BE116" s="3"/>
     </row>
-    <row r="117" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -7766,7 +7780,7 @@
       <c r="BD117" s="3"/>
       <c r="BE117" s="3"/>
     </row>
-    <row r="118" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -7823,7 +7837,7 @@
       <c r="BD118" s="3"/>
       <c r="BE118" s="3"/>
     </row>
-    <row r="119" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -7880,7 +7894,7 @@
       <c r="BD119" s="3"/>
       <c r="BE119" s="3"/>
     </row>
-    <row r="120" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -7937,7 +7951,7 @@
       <c r="BD120" s="3"/>
       <c r="BE120" s="3"/>
     </row>
-    <row r="121" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -7994,7 +8008,7 @@
       <c r="BD121" s="3"/>
       <c r="BE121" s="3"/>
     </row>
-    <row r="122" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -8051,7 +8065,7 @@
       <c r="BD122" s="3"/>
       <c r="BE122" s="3"/>
     </row>
-    <row r="123" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -8108,7 +8122,7 @@
       <c r="BD123" s="3"/>
       <c r="BE123" s="3"/>
     </row>
-    <row r="124" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -8165,7 +8179,7 @@
       <c r="BD124" s="3"/>
       <c r="BE124" s="3"/>
     </row>
-    <row r="125" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -8222,7 +8236,7 @@
       <c r="BD125" s="3"/>
       <c r="BE125" s="3"/>
     </row>
-    <row r="126" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -8279,7 +8293,7 @@
       <c r="BD126" s="3"/>
       <c r="BE126" s="3"/>
     </row>
-    <row r="127" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -8336,7 +8350,7 @@
       <c r="BD127" s="3"/>
       <c r="BE127" s="3"/>
     </row>
-    <row r="128" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -8393,7 +8407,7 @@
       <c r="BD128" s="3"/>
       <c r="BE128" s="3"/>
     </row>
-    <row r="129" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -8450,7 +8464,7 @@
       <c r="BD129" s="3"/>
       <c r="BE129" s="3"/>
     </row>
-    <row r="130" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -8507,7 +8521,7 @@
       <c r="BD130" s="3"/>
       <c r="BE130" s="3"/>
     </row>
-    <row r="131" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -8564,7 +8578,7 @@
       <c r="BD131" s="3"/>
       <c r="BE131" s="3"/>
     </row>
-    <row r="132" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -8621,7 +8635,7 @@
       <c r="BD132" s="3"/>
       <c r="BE132" s="3"/>
     </row>
-    <row r="133" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -8678,7 +8692,7 @@
       <c r="BD133" s="3"/>
       <c r="BE133" s="3"/>
     </row>
-    <row r="134" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -8735,7 +8749,7 @@
       <c r="BD134" s="3"/>
       <c r="BE134" s="3"/>
     </row>
-    <row r="135" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -8792,7 +8806,7 @@
       <c r="BD135" s="3"/>
       <c r="BE135" s="3"/>
     </row>
-    <row r="136" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -8849,7 +8863,7 @@
       <c r="BD136" s="3"/>
       <c r="BE136" s="3"/>
     </row>
-    <row r="137" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -8906,7 +8920,7 @@
       <c r="BD137" s="3"/>
       <c r="BE137" s="3"/>
     </row>
-    <row r="138" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -8963,7 +8977,7 @@
       <c r="BD138" s="3"/>
       <c r="BE138" s="3"/>
     </row>
-    <row r="139" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -9020,7 +9034,7 @@
       <c r="BD139" s="3"/>
       <c r="BE139" s="3"/>
     </row>
-    <row r="140" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -9077,7 +9091,7 @@
       <c r="BD140" s="3"/>
       <c r="BE140" s="3"/>
     </row>
-    <row r="141" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -9134,7 +9148,7 @@
       <c r="BD141" s="3"/>
       <c r="BE141" s="3"/>
     </row>
-    <row r="142" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -9191,7 +9205,7 @@
       <c r="BD142" s="3"/>
       <c r="BE142" s="3"/>
     </row>
-    <row r="143" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -9248,7 +9262,7 @@
       <c r="BD143" s="3"/>
       <c r="BE143" s="3"/>
     </row>
-    <row r="144" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -9305,7 +9319,7 @@
       <c r="BD144" s="3"/>
       <c r="BE144" s="3"/>
     </row>
-    <row r="145" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -9362,7 +9376,7 @@
       <c r="BD145" s="3"/>
       <c r="BE145" s="3"/>
     </row>
-    <row r="146" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -9419,7 +9433,7 @@
       <c r="BD146" s="3"/>
       <c r="BE146" s="3"/>
     </row>
-    <row r="147" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -9476,7 +9490,7 @@
       <c r="BD147" s="3"/>
       <c r="BE147" s="3"/>
     </row>
-    <row r="148" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -9533,7 +9547,7 @@
       <c r="BD148" s="3"/>
       <c r="BE148" s="3"/>
     </row>
-    <row r="149" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -9590,7 +9604,7 @@
       <c r="BD149" s="3"/>
       <c r="BE149" s="3"/>
     </row>
-    <row r="150" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -9647,7 +9661,7 @@
       <c r="BD150" s="3"/>
       <c r="BE150" s="3"/>
     </row>
-    <row r="151" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -9704,7 +9718,7 @@
       <c r="BD151" s="3"/>
       <c r="BE151" s="3"/>
     </row>
-    <row r="152" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -9761,7 +9775,7 @@
       <c r="BD152" s="3"/>
       <c r="BE152" s="3"/>
     </row>
-    <row r="153" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -9818,7 +9832,7 @@
       <c r="BD153" s="3"/>
       <c r="BE153" s="3"/>
     </row>
-    <row r="154" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -9875,7 +9889,7 @@
       <c r="BD154" s="3"/>
       <c r="BE154" s="3"/>
     </row>
-    <row r="155" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -9932,7 +9946,7 @@
       <c r="BD155" s="3"/>
       <c r="BE155" s="3"/>
     </row>
-    <row r="156" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -9989,7 +10003,7 @@
       <c r="BD156" s="3"/>
       <c r="BE156" s="3"/>
     </row>
-    <row r="157" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -10046,7 +10060,7 @@
       <c r="BD157" s="3"/>
       <c r="BE157" s="3"/>
     </row>
-    <row r="158" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -10103,7 +10117,7 @@
       <c r="BD158" s="3"/>
       <c r="BE158" s="3"/>
     </row>
-    <row r="159" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -10160,7 +10174,7 @@
       <c r="BD159" s="3"/>
       <c r="BE159" s="3"/>
     </row>
-    <row r="160" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -10217,7 +10231,7 @@
       <c r="BD160" s="3"/>
       <c r="BE160" s="3"/>
     </row>
-    <row r="161" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -10274,7 +10288,7 @@
       <c r="BD161" s="3"/>
       <c r="BE161" s="3"/>
     </row>
-    <row r="162" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -10331,7 +10345,7 @@
       <c r="BD162" s="3"/>
       <c r="BE162" s="3"/>
     </row>
-    <row r="163" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -10388,7 +10402,7 @@
       <c r="BD163" s="3"/>
       <c r="BE163" s="3"/>
     </row>
-    <row r="164" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -10445,7 +10459,7 @@
       <c r="BD164" s="3"/>
       <c r="BE164" s="3"/>
     </row>
-    <row r="165" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -10502,7 +10516,7 @@
       <c r="BD165" s="3"/>
       <c r="BE165" s="3"/>
     </row>
-    <row r="166" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -10559,7 +10573,7 @@
       <c r="BD166" s="3"/>
       <c r="BE166" s="3"/>
     </row>
-    <row r="167" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -10616,7 +10630,7 @@
       <c r="BD167" s="3"/>
       <c r="BE167" s="3"/>
     </row>
-    <row r="168" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -10673,7 +10687,7 @@
       <c r="BD168" s="3"/>
       <c r="BE168" s="3"/>
     </row>
-    <row r="169" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -10730,7 +10744,7 @@
       <c r="BD169" s="3"/>
       <c r="BE169" s="3"/>
     </row>
-    <row r="170" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -10787,7 +10801,7 @@
       <c r="BD170" s="3"/>
       <c r="BE170" s="3"/>
     </row>
-    <row r="171" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -10844,7 +10858,7 @@
       <c r="BD171" s="3"/>
       <c r="BE171" s="3"/>
     </row>
-    <row r="172" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -10901,7 +10915,7 @@
       <c r="BD172" s="3"/>
       <c r="BE172" s="3"/>
     </row>
-    <row r="173" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -10958,7 +10972,7 @@
       <c r="BD173" s="3"/>
       <c r="BE173" s="3"/>
     </row>
-    <row r="174" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -11015,7 +11029,7 @@
       <c r="BD174" s="3"/>
       <c r="BE174" s="3"/>
     </row>
-    <row r="175" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -11072,7 +11086,7 @@
       <c r="BD175" s="3"/>
       <c r="BE175" s="3"/>
     </row>
-    <row r="176" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -11129,7 +11143,7 @@
       <c r="BD176" s="3"/>
       <c r="BE176" s="3"/>
     </row>
-    <row r="177" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -11186,7 +11200,7 @@
       <c r="BD177" s="3"/>
       <c r="BE177" s="3"/>
     </row>
-    <row r="178" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -11243,7 +11257,7 @@
       <c r="BD178" s="3"/>
       <c r="BE178" s="3"/>
     </row>
-    <row r="179" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -11300,7 +11314,7 @@
       <c r="BD179" s="3"/>
       <c r="BE179" s="3"/>
     </row>
-    <row r="180" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -11357,7 +11371,7 @@
       <c r="BD180" s="3"/>
       <c r="BE180" s="3"/>
     </row>
-    <row r="181" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -11414,7 +11428,7 @@
       <c r="BD181" s="3"/>
       <c r="BE181" s="3"/>
     </row>
-    <row r="182" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -11471,7 +11485,7 @@
       <c r="BD182" s="3"/>
       <c r="BE182" s="3"/>
     </row>
-    <row r="183" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -11528,7 +11542,7 @@
       <c r="BD183" s="3"/>
       <c r="BE183" s="3"/>
     </row>
-    <row r="184" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -11585,7 +11599,7 @@
       <c r="BD184" s="3"/>
       <c r="BE184" s="3"/>
     </row>
-    <row r="185" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -11642,7 +11656,7 @@
       <c r="BD185" s="3"/>
       <c r="BE185" s="3"/>
     </row>
-    <row r="186" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -11699,7 +11713,7 @@
       <c r="BD186" s="3"/>
       <c r="BE186" s="3"/>
     </row>
-    <row r="187" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -11756,7 +11770,7 @@
       <c r="BD187" s="3"/>
       <c r="BE187" s="3"/>
     </row>
-    <row r="188" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -11813,7 +11827,7 @@
       <c r="BD188" s="3"/>
       <c r="BE188" s="3"/>
     </row>
-    <row r="189" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -11870,7 +11884,7 @@
       <c r="BD189" s="3"/>
       <c r="BE189" s="3"/>
     </row>
-    <row r="190" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -11927,7 +11941,7 @@
       <c r="BD190" s="3"/>
       <c r="BE190" s="3"/>
     </row>
-    <row r="191" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -11984,7 +11998,7 @@
       <c r="BD191" s="3"/>
       <c r="BE191" s="3"/>
     </row>
-    <row r="192" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -12041,7 +12055,7 @@
       <c r="BD192" s="3"/>
       <c r="BE192" s="3"/>
     </row>
-    <row r="193" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -12098,7 +12112,7 @@
       <c r="BD193" s="3"/>
       <c r="BE193" s="3"/>
     </row>
-    <row r="194" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -12155,7 +12169,7 @@
       <c r="BD194" s="3"/>
       <c r="BE194" s="3"/>
     </row>
-    <row r="195" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -12212,7 +12226,7 @@
       <c r="BD195" s="3"/>
       <c r="BE195" s="3"/>
     </row>
-    <row r="196" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -12269,7 +12283,7 @@
       <c r="BD196" s="3"/>
       <c r="BE196" s="3"/>
     </row>
-    <row r="197" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -12326,7 +12340,7 @@
       <c r="BD197" s="3"/>
       <c r="BE197" s="3"/>
     </row>
-    <row r="198" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -12383,7 +12397,7 @@
       <c r="BD198" s="3"/>
       <c r="BE198" s="3"/>
     </row>
-    <row r="199" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -12440,7 +12454,7 @@
       <c r="BD199" s="3"/>
       <c r="BE199" s="3"/>
     </row>
-    <row r="200" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -12497,7 +12511,7 @@
       <c r="BD200" s="3"/>
       <c r="BE200" s="3"/>
     </row>
-    <row r="201" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -12554,7 +12568,7 @@
       <c r="BD201" s="3"/>
       <c r="BE201" s="3"/>
     </row>
-    <row r="202" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -12611,7 +12625,7 @@
       <c r="BD202" s="3"/>
       <c r="BE202" s="3"/>
     </row>
-    <row r="203" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -12668,7 +12682,7 @@
       <c r="BD203" s="3"/>
       <c r="BE203" s="3"/>
     </row>
-    <row r="204" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -12725,7 +12739,7 @@
       <c r="BD204" s="3"/>
       <c r="BE204" s="3"/>
     </row>
-    <row r="205" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -12782,7 +12796,7 @@
       <c r="BD205" s="3"/>
       <c r="BE205" s="3"/>
     </row>
-    <row r="206" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -12839,7 +12853,7 @@
       <c r="BD206" s="3"/>
       <c r="BE206" s="3"/>
     </row>
-    <row r="207" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -12896,7 +12910,7 @@
       <c r="BD207" s="3"/>
       <c r="BE207" s="3"/>
     </row>
-    <row r="208" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -12953,7 +12967,7 @@
       <c r="BD208" s="3"/>
       <c r="BE208" s="3"/>
     </row>
-    <row r="209" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -13010,7 +13024,7 @@
       <c r="BD209" s="3"/>
       <c r="BE209" s="3"/>
     </row>
-    <row r="210" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -13067,7 +13081,7 @@
       <c r="BD210" s="3"/>
       <c r="BE210" s="3"/>
     </row>
-    <row r="211" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -13124,7 +13138,7 @@
       <c r="BD211" s="3"/>
       <c r="BE211" s="3"/>
     </row>
-    <row r="212" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -13181,7 +13195,7 @@
       <c r="BD212" s="3"/>
       <c r="BE212" s="3"/>
     </row>
-    <row r="213" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -13238,7 +13252,7 @@
       <c r="BD213" s="3"/>
       <c r="BE213" s="3"/>
     </row>
-    <row r="214" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -13295,7 +13309,7 @@
       <c r="BD214" s="3"/>
       <c r="BE214" s="3"/>
     </row>
-    <row r="215" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -13352,7 +13366,7 @@
       <c r="BD215" s="3"/>
       <c r="BE215" s="3"/>
     </row>
-    <row r="216" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -13409,7 +13423,7 @@
       <c r="BD216" s="3"/>
       <c r="BE216" s="3"/>
     </row>
-    <row r="217" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -13466,7 +13480,7 @@
       <c r="BD217" s="3"/>
       <c r="BE217" s="3"/>
     </row>
-    <row r="218" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -13523,7 +13537,7 @@
       <c r="BD218" s="3"/>
       <c r="BE218" s="3"/>
     </row>
-    <row r="219" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -13580,7 +13594,7 @@
       <c r="BD219" s="3"/>
       <c r="BE219" s="3"/>
     </row>
-    <row r="220" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -13637,7 +13651,7 @@
       <c r="BD220" s="3"/>
       <c r="BE220" s="3"/>
     </row>
-    <row r="221" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -13694,7 +13708,7 @@
       <c r="BD221" s="3"/>
       <c r="BE221" s="3"/>
     </row>
-    <row r="222" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -13751,7 +13765,7 @@
       <c r="BD222" s="3"/>
       <c r="BE222" s="3"/>
     </row>
-    <row r="223" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -13808,7 +13822,7 @@
       <c r="BD223" s="3"/>
       <c r="BE223" s="3"/>
     </row>
-    <row r="224" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -13865,7 +13879,7 @@
       <c r="BD224" s="3"/>
       <c r="BE224" s="3"/>
     </row>
-    <row r="225" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -13922,7 +13936,7 @@
       <c r="BD225" s="3"/>
       <c r="BE225" s="3"/>
     </row>
-    <row r="226" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -13979,7 +13993,7 @@
       <c r="BD226" s="3"/>
       <c r="BE226" s="3"/>
     </row>
-    <row r="227" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -14036,7 +14050,7 @@
       <c r="BD227" s="3"/>
       <c r="BE227" s="3"/>
     </row>
-    <row r="228" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -14093,7 +14107,7 @@
       <c r="BD228" s="3"/>
       <c r="BE228" s="3"/>
     </row>
-    <row r="229" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -14150,7 +14164,7 @@
       <c r="BD229" s="3"/>
       <c r="BE229" s="3"/>
     </row>
-    <row r="230" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -14207,7 +14221,7 @@
       <c r="BD230" s="3"/>
       <c r="BE230" s="3"/>
     </row>
-    <row r="231" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -14264,7 +14278,7 @@
       <c r="BD231" s="3"/>
       <c r="BE231" s="3"/>
     </row>
-    <row r="232" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -14321,7 +14335,7 @@
       <c r="BD232" s="3"/>
       <c r="BE232" s="3"/>
     </row>
-    <row r="233" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -14378,7 +14392,7 @@
       <c r="BD233" s="3"/>
       <c r="BE233" s="3"/>
     </row>
-    <row r="234" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -14435,7 +14449,7 @@
       <c r="BD234" s="3"/>
       <c r="BE234" s="3"/>
     </row>
-    <row r="235" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -14492,7 +14506,7 @@
       <c r="BD235" s="3"/>
       <c r="BE235" s="3"/>
     </row>
-    <row r="236" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -14549,7 +14563,7 @@
       <c r="BD236" s="3"/>
       <c r="BE236" s="3"/>
     </row>
-    <row r="237" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -14606,7 +14620,7 @@
       <c r="BD237" s="3"/>
       <c r="BE237" s="3"/>
     </row>
-    <row r="238" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -14663,7 +14677,7 @@
       <c r="BD238" s="3"/>
       <c r="BE238" s="3"/>
     </row>
-    <row r="239" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -14720,7 +14734,7 @@
       <c r="BD239" s="3"/>
       <c r="BE239" s="3"/>
     </row>
-    <row r="240" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -14777,7 +14791,7 @@
       <c r="BD240" s="3"/>
       <c r="BE240" s="3"/>
     </row>
-    <row r="241" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -14834,7 +14848,7 @@
       <c r="BD241" s="3"/>
       <c r="BE241" s="3"/>
     </row>
-    <row r="242" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -14891,7 +14905,7 @@
       <c r="BD242" s="3"/>
       <c r="BE242" s="3"/>
     </row>
-    <row r="243" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -14948,7 +14962,7 @@
       <c r="BD243" s="3"/>
       <c r="BE243" s="3"/>
     </row>
-    <row r="244" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -15005,7 +15019,7 @@
       <c r="BD244" s="3"/>
       <c r="BE244" s="3"/>
     </row>
-    <row r="245" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -15062,7 +15076,7 @@
       <c r="BD245" s="3"/>
       <c r="BE245" s="3"/>
     </row>
-    <row r="246" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -15119,7 +15133,7 @@
       <c r="BD246" s="3"/>
       <c r="BE246" s="3"/>
     </row>
-    <row r="247" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -15176,7 +15190,7 @@
       <c r="BD247" s="3"/>
       <c r="BE247" s="3"/>
     </row>
-    <row r="248" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -15233,7 +15247,7 @@
       <c r="BD248" s="3"/>
       <c r="BE248" s="3"/>
     </row>
-    <row r="249" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -15290,7 +15304,7 @@
       <c r="BD249" s="3"/>
       <c r="BE249" s="3"/>
     </row>
-    <row r="250" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -15347,7 +15361,7 @@
       <c r="BD250" s="3"/>
       <c r="BE250" s="3"/>
     </row>
-    <row r="251" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -15404,7 +15418,7 @@
       <c r="BD251" s="3"/>
       <c r="BE251" s="3"/>
     </row>
-    <row r="252" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -15461,7 +15475,7 @@
       <c r="BD252" s="3"/>
       <c r="BE252" s="3"/>
     </row>
-    <row r="253" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -15518,7 +15532,7 @@
       <c r="BD253" s="3"/>
       <c r="BE253" s="3"/>
     </row>
-    <row r="254" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -15575,7 +15589,7 @@
       <c r="BD254" s="3"/>
       <c r="BE254" s="3"/>
     </row>
-    <row r="255" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -15632,7 +15646,7 @@
       <c r="BD255" s="3"/>
       <c r="BE255" s="3"/>
     </row>
-    <row r="256" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -15689,7 +15703,7 @@
       <c r="BD256" s="3"/>
       <c r="BE256" s="3"/>
     </row>
-    <row r="257" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -15746,7 +15760,7 @@
       <c r="BD257" s="3"/>
       <c r="BE257" s="3"/>
     </row>
-    <row r="258" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -15803,7 +15817,7 @@
       <c r="BD258" s="3"/>
       <c r="BE258" s="3"/>
     </row>
-    <row r="259" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -15860,7 +15874,7 @@
       <c r="BD259" s="3"/>
       <c r="BE259" s="3"/>
     </row>
-    <row r="260" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -15917,7 +15931,7 @@
       <c r="BD260" s="3"/>
       <c r="BE260" s="3"/>
     </row>
-    <row r="261" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -15974,7 +15988,7 @@
       <c r="BD261" s="3"/>
       <c r="BE261" s="3"/>
     </row>
-    <row r="262" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -16031,7 +16045,7 @@
       <c r="BD262" s="3"/>
       <c r="BE262" s="3"/>
     </row>
-    <row r="263" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -16088,7 +16102,7 @@
       <c r="BD263" s="3"/>
       <c r="BE263" s="3"/>
     </row>
-    <row r="264" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -16145,7 +16159,7 @@
       <c r="BD264" s="3"/>
       <c r="BE264" s="3"/>
     </row>
-    <row r="265" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -16202,7 +16216,7 @@
       <c r="BD265" s="3"/>
       <c r="BE265" s="3"/>
     </row>
-    <row r="266" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -16259,7 +16273,7 @@
       <c r="BD266" s="3"/>
       <c r="BE266" s="3"/>
     </row>
-    <row r="267" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -16316,7 +16330,7 @@
       <c r="BD267" s="3"/>
       <c r="BE267" s="3"/>
     </row>
-    <row r="268" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -16373,7 +16387,7 @@
       <c r="BD268" s="3"/>
       <c r="BE268" s="3"/>
     </row>
-    <row r="269" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -16430,7 +16444,7 @@
       <c r="BD269" s="3"/>
       <c r="BE269" s="3"/>
     </row>
-    <row r="270" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -16487,7 +16501,7 @@
       <c r="BD270" s="3"/>
       <c r="BE270" s="3"/>
     </row>
-    <row r="271" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -16544,7 +16558,7 @@
       <c r="BD271" s="3"/>
       <c r="BE271" s="3"/>
     </row>
-    <row r="272" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -16601,7 +16615,7 @@
       <c r="BD272" s="3"/>
       <c r="BE272" s="3"/>
     </row>
-    <row r="273" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -16658,7 +16672,7 @@
       <c r="BD273" s="3"/>
       <c r="BE273" s="3"/>
     </row>
-    <row r="274" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -16715,7 +16729,7 @@
       <c r="BD274" s="3"/>
       <c r="BE274" s="3"/>
     </row>
-    <row r="275" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -16772,7 +16786,7 @@
       <c r="BD275" s="3"/>
       <c r="BE275" s="3"/>
     </row>
-    <row r="276" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -16829,7 +16843,7 @@
       <c r="BD276" s="3"/>
       <c r="BE276" s="3"/>
     </row>
-    <row r="277" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -16886,7 +16900,7 @@
       <c r="BD277" s="3"/>
       <c r="BE277" s="3"/>
     </row>
-    <row r="278" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -16943,7 +16957,7 @@
       <c r="BD278" s="3"/>
       <c r="BE278" s="3"/>
     </row>
-    <row r="279" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -17000,7 +17014,7 @@
       <c r="BD279" s="3"/>
       <c r="BE279" s="3"/>
     </row>
-    <row r="280" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -17057,7 +17071,7 @@
       <c r="BD280" s="3"/>
       <c r="BE280" s="3"/>
     </row>
-    <row r="281" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -17114,7 +17128,7 @@
       <c r="BD281" s="3"/>
       <c r="BE281" s="3"/>
     </row>
-    <row r="282" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -17171,7 +17185,7 @@
       <c r="BD282" s="3"/>
       <c r="BE282" s="3"/>
     </row>
-    <row r="283" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -17228,7 +17242,7 @@
       <c r="BD283" s="3"/>
       <c r="BE283" s="3"/>
     </row>
-    <row r="284" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -17285,7 +17299,7 @@
       <c r="BD284" s="3"/>
       <c r="BE284" s="3"/>
     </row>
-    <row r="285" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -17342,7 +17356,7 @@
       <c r="BD285" s="3"/>
       <c r="BE285" s="3"/>
     </row>
-    <row r="286" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -17399,7 +17413,7 @@
       <c r="BD286" s="3"/>
       <c r="BE286" s="3"/>
     </row>
-    <row r="287" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -17456,7 +17470,7 @@
       <c r="BD287" s="3"/>
       <c r="BE287" s="3"/>
     </row>
-    <row r="288" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -17513,7 +17527,7 @@
       <c r="BD288" s="3"/>
       <c r="BE288" s="3"/>
     </row>
-    <row r="289" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -17570,7 +17584,7 @@
       <c r="BD289" s="3"/>
       <c r="BE289" s="3"/>
     </row>
-    <row r="290" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -17627,7 +17641,7 @@
       <c r="BD290" s="3"/>
       <c r="BE290" s="3"/>
     </row>
-    <row r="291" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -17684,7 +17698,7 @@
       <c r="BD291" s="3"/>
       <c r="BE291" s="3"/>
     </row>
-    <row r="292" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -17741,7 +17755,7 @@
       <c r="BD292" s="3"/>
       <c r="BE292" s="3"/>
     </row>
-    <row r="293" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -17798,7 +17812,7 @@
       <c r="BD293" s="3"/>
       <c r="BE293" s="3"/>
     </row>
-    <row r="294" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -17855,7 +17869,7 @@
       <c r="BD294" s="3"/>
       <c r="BE294" s="3"/>
     </row>
-    <row r="295" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -17912,7 +17926,7 @@
       <c r="BD295" s="3"/>
       <c r="BE295" s="3"/>
     </row>
-    <row r="296" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -17969,7 +17983,7 @@
       <c r="BD296" s="3"/>
       <c r="BE296" s="3"/>
     </row>
-    <row r="297" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -18026,7 +18040,7 @@
       <c r="BD297" s="3"/>
       <c r="BE297" s="3"/>
     </row>
-    <row r="298" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -18083,7 +18097,7 @@
       <c r="BD298" s="3"/>
       <c r="BE298" s="3"/>
     </row>
-    <row r="299" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -18140,7 +18154,7 @@
       <c r="BD299" s="3"/>
       <c r="BE299" s="3"/>
     </row>
-    <row r="300" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -18197,7 +18211,7 @@
       <c r="BD300" s="3"/>
       <c r="BE300" s="3"/>
     </row>
-    <row r="301" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -18254,7 +18268,7 @@
       <c r="BD301" s="3"/>
       <c r="BE301" s="3"/>
     </row>
-    <row r="302" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -18311,7 +18325,7 @@
       <c r="BD302" s="3"/>
       <c r="BE302" s="3"/>
     </row>
-    <row r="303" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -18368,7 +18382,7 @@
       <c r="BD303" s="3"/>
       <c r="BE303" s="3"/>
     </row>
-    <row r="304" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -18425,7 +18439,7 @@
       <c r="BD304" s="3"/>
       <c r="BE304" s="3"/>
     </row>
-    <row r="305" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -18482,7 +18496,7 @@
       <c r="BD305" s="3"/>
       <c r="BE305" s="3"/>
     </row>
-    <row r="306" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -18539,7 +18553,7 @@
       <c r="BD306" s="3"/>
       <c r="BE306" s="3"/>
     </row>
-    <row r="307" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -18596,7 +18610,7 @@
       <c r="BD307" s="3"/>
       <c r="BE307" s="3"/>
     </row>
-    <row r="308" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -18653,7 +18667,7 @@
       <c r="BD308" s="3"/>
       <c r="BE308" s="3"/>
     </row>
-    <row r="309" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -18710,7 +18724,7 @@
       <c r="BD309" s="3"/>
       <c r="BE309" s="3"/>
     </row>
-    <row r="310" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -18767,7 +18781,7 @@
       <c r="BD310" s="3"/>
       <c r="BE310" s="3"/>
     </row>
-    <row r="311" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -18824,7 +18838,7 @@
       <c r="BD311" s="3"/>
       <c r="BE311" s="3"/>
     </row>
-    <row r="312" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -18881,7 +18895,7 @@
       <c r="BD312" s="3"/>
       <c r="BE312" s="3"/>
     </row>
-    <row r="313" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -18938,7 +18952,7 @@
       <c r="BD313" s="3"/>
       <c r="BE313" s="3"/>
     </row>
-    <row r="314" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -18995,7 +19009,7 @@
       <c r="BD314" s="3"/>
       <c r="BE314" s="3"/>
     </row>
-    <row r="315" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -19052,7 +19066,7 @@
       <c r="BD315" s="3"/>
       <c r="BE315" s="3"/>
     </row>
-    <row r="316" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -19109,7 +19123,7 @@
       <c r="BD316" s="3"/>
       <c r="BE316" s="3"/>
     </row>
-    <row r="317" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -19166,7 +19180,7 @@
       <c r="BD317" s="3"/>
       <c r="BE317" s="3"/>
     </row>
-    <row r="318" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -19223,7 +19237,7 @@
       <c r="BD318" s="3"/>
       <c r="BE318" s="3"/>
     </row>
-    <row r="319" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -19280,7 +19294,7 @@
       <c r="BD319" s="3"/>
       <c r="BE319" s="3"/>
     </row>
-    <row r="320" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -19337,7 +19351,7 @@
       <c r="BD320" s="3"/>
       <c r="BE320" s="3"/>
     </row>
-    <row r="321" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -19394,7 +19408,7 @@
       <c r="BD321" s="3"/>
       <c r="BE321" s="3"/>
     </row>
-    <row r="322" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -19451,7 +19465,7 @@
       <c r="BD322" s="3"/>
       <c r="BE322" s="3"/>
     </row>
-    <row r="323" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -19508,7 +19522,7 @@
       <c r="BD323" s="3"/>
       <c r="BE323" s="3"/>
     </row>
-    <row r="324" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -19565,7 +19579,7 @@
       <c r="BD324" s="3"/>
       <c r="BE324" s="3"/>
     </row>
-    <row r="325" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -19622,7 +19636,7 @@
       <c r="BD325" s="3"/>
       <c r="BE325" s="3"/>
     </row>
-    <row r="326" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -19679,7 +19693,7 @@
       <c r="BD326" s="3"/>
       <c r="BE326" s="3"/>
     </row>
-    <row r="327" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -19736,7 +19750,7 @@
       <c r="BD327" s="3"/>
       <c r="BE327" s="3"/>
     </row>
-    <row r="328" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -19793,7 +19807,7 @@
       <c r="BD328" s="3"/>
       <c r="BE328" s="3"/>
     </row>
-    <row r="329" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -19850,7 +19864,7 @@
       <c r="BD329" s="3"/>
       <c r="BE329" s="3"/>
     </row>
-    <row r="330" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -19907,7 +19921,7 @@
       <c r="BD330" s="3"/>
       <c r="BE330" s="3"/>
     </row>
-    <row r="331" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -19964,7 +19978,7 @@
       <c r="BD331" s="3"/>
       <c r="BE331" s="3"/>
     </row>
-    <row r="332" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -20021,7 +20035,7 @@
       <c r="BD332" s="3"/>
       <c r="BE332" s="3"/>
     </row>
-    <row r="333" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -20078,7 +20092,7 @@
       <c r="BD333" s="3"/>
       <c r="BE333" s="3"/>
     </row>
-    <row r="334" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -20135,7 +20149,7 @@
       <c r="BD334" s="3"/>
       <c r="BE334" s="3"/>
     </row>
-    <row r="335" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -20192,7 +20206,7 @@
       <c r="BD335" s="3"/>
       <c r="BE335" s="3"/>
     </row>
-    <row r="336" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -20249,7 +20263,7 @@
       <c r="BD336" s="3"/>
       <c r="BE336" s="3"/>
     </row>
-    <row r="337" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -20306,7 +20320,7 @@
       <c r="BD337" s="3"/>
       <c r="BE337" s="3"/>
     </row>
-    <row r="338" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -20363,7 +20377,7 @@
       <c r="BD338" s="3"/>
       <c r="BE338" s="3"/>
     </row>
-    <row r="339" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -20420,7 +20434,7 @@
       <c r="BD339" s="3"/>
       <c r="BE339" s="3"/>
     </row>
-    <row r="340" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -20477,7 +20491,7 @@
       <c r="BD340" s="3"/>
       <c r="BE340" s="3"/>
     </row>
-    <row r="341" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -20534,7 +20548,7 @@
       <c r="BD341" s="3"/>
       <c r="BE341" s="3"/>
     </row>
-    <row r="342" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -20591,7 +20605,7 @@
       <c r="BD342" s="3"/>
       <c r="BE342" s="3"/>
     </row>
-    <row r="343" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -20648,7 +20662,7 @@
       <c r="BD343" s="3"/>
       <c r="BE343" s="3"/>
     </row>
-    <row r="344" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -20705,7 +20719,7 @@
       <c r="BD344" s="3"/>
       <c r="BE344" s="3"/>
     </row>
-    <row r="345" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -20762,7 +20776,7 @@
       <c r="BD345" s="3"/>
       <c r="BE345" s="3"/>
     </row>
-    <row r="346" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -20819,7 +20833,7 @@
       <c r="BD346" s="3"/>
       <c r="BE346" s="3"/>
     </row>
-    <row r="347" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -20876,7 +20890,7 @@
       <c r="BD347" s="3"/>
       <c r="BE347" s="3"/>
     </row>
-    <row r="348" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -20933,7 +20947,7 @@
       <c r="BD348" s="3"/>
       <c r="BE348" s="3"/>
     </row>
-    <row r="349" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -20990,7 +21004,7 @@
       <c r="BD349" s="3"/>
       <c r="BE349" s="3"/>
     </row>
-    <row r="350" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -21047,7 +21061,7 @@
       <c r="BD350" s="3"/>
       <c r="BE350" s="3"/>
     </row>
-    <row r="351" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -21104,7 +21118,7 @@
       <c r="BD351" s="3"/>
       <c r="BE351" s="3"/>
     </row>
-    <row r="352" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -21161,7 +21175,7 @@
       <c r="BD352" s="3"/>
       <c r="BE352" s="3"/>
     </row>
-    <row r="353" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -21218,7 +21232,7 @@
       <c r="BD353" s="3"/>
       <c r="BE353" s="3"/>
     </row>
-    <row r="354" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -21275,7 +21289,7 @@
       <c r="BD354" s="3"/>
       <c r="BE354" s="3"/>
     </row>
-    <row r="355" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -21332,7 +21346,7 @@
       <c r="BD355" s="3"/>
       <c r="BE355" s="3"/>
     </row>
-    <row r="356" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -21389,7 +21403,7 @@
       <c r="BD356" s="3"/>
       <c r="BE356" s="3"/>
     </row>
-    <row r="357" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -21446,7 +21460,7 @@
       <c r="BD357" s="3"/>
       <c r="BE357" s="3"/>
     </row>
-    <row r="358" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -21503,7 +21517,7 @@
       <c r="BD358" s="3"/>
       <c r="BE358" s="3"/>
     </row>
-    <row r="359" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -21560,7 +21574,7 @@
       <c r="BD359" s="3"/>
       <c r="BE359" s="3"/>
     </row>
-    <row r="360" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -21617,7 +21631,7 @@
       <c r="BD360" s="3"/>
       <c r="BE360" s="3"/>
     </row>
-    <row r="361" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -21674,7 +21688,7 @@
       <c r="BD361" s="3"/>
       <c r="BE361" s="3"/>
     </row>
-    <row r="362" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -21731,7 +21745,7 @@
       <c r="BD362" s="3"/>
       <c r="BE362" s="3"/>
     </row>
-    <row r="363" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
@@ -21788,7 +21802,7 @@
       <c r="BD363" s="3"/>
       <c r="BE363" s="3"/>
     </row>
-    <row r="364" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -21845,7 +21859,7 @@
       <c r="BD364" s="3"/>
       <c r="BE364" s="3"/>
     </row>
-    <row r="365" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -21902,7 +21916,7 @@
       <c r="BD365" s="3"/>
       <c r="BE365" s="3"/>
     </row>
-    <row r="366" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
@@ -21959,7 +21973,7 @@
       <c r="BD366" s="3"/>
       <c r="BE366" s="3"/>
     </row>
-    <row r="367" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -22016,7 +22030,7 @@
       <c r="BD367" s="3"/>
       <c r="BE367" s="3"/>
     </row>
-    <row r="368" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -22073,7 +22087,7 @@
       <c r="BD368" s="3"/>
       <c r="BE368" s="3"/>
     </row>
-    <row r="369" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -22130,7 +22144,7 @@
       <c r="BD369" s="3"/>
       <c r="BE369" s="3"/>
     </row>
-    <row r="370" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -22187,7 +22201,7 @@
       <c r="BD370" s="3"/>
       <c r="BE370" s="3"/>
     </row>
-    <row r="371" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -22244,7 +22258,7 @@
       <c r="BD371" s="3"/>
       <c r="BE371" s="3"/>
     </row>
-    <row r="372" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -22301,7 +22315,7 @@
       <c r="BD372" s="3"/>
       <c r="BE372" s="3"/>
     </row>
-    <row r="373" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
@@ -22358,7 +22372,7 @@
       <c r="BD373" s="3"/>
       <c r="BE373" s="3"/>
     </row>
-    <row r="374" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
@@ -22415,7 +22429,7 @@
       <c r="BD374" s="3"/>
       <c r="BE374" s="3"/>
     </row>
-    <row r="375" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -22472,7 +22486,7 @@
       <c r="BD375" s="3"/>
       <c r="BE375" s="3"/>
     </row>
-    <row r="376" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -22529,7 +22543,7 @@
       <c r="BD376" s="3"/>
       <c r="BE376" s="3"/>
     </row>
-    <row r="377" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
@@ -22586,7 +22600,7 @@
       <c r="BD377" s="3"/>
       <c r="BE377" s="3"/>
     </row>
-    <row r="378" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -22643,7 +22657,7 @@
       <c r="BD378" s="3"/>
       <c r="BE378" s="3"/>
     </row>
-    <row r="379" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
@@ -22700,7 +22714,7 @@
       <c r="BD379" s="3"/>
       <c r="BE379" s="3"/>
     </row>
-    <row r="380" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
@@ -22757,7 +22771,7 @@
       <c r="BD380" s="3"/>
       <c r="BE380" s="3"/>
     </row>
-    <row r="381" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
@@ -22814,7 +22828,7 @@
       <c r="BD381" s="3"/>
       <c r="BE381" s="3"/>
     </row>
-    <row r="382" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
@@ -22871,7 +22885,7 @@
       <c r="BD382" s="3"/>
       <c r="BE382" s="3"/>
     </row>
-    <row r="383" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
@@ -22928,7 +22942,7 @@
       <c r="BD383" s="3"/>
       <c r="BE383" s="3"/>
     </row>
-    <row r="384" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -22985,7 +22999,7 @@
       <c r="BD384" s="3"/>
       <c r="BE384" s="3"/>
     </row>
-    <row r="385" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
@@ -23042,7 +23056,7 @@
       <c r="BD385" s="3"/>
       <c r="BE385" s="3"/>
     </row>
-    <row r="386" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
@@ -23099,7 +23113,7 @@
       <c r="BD386" s="3"/>
       <c r="BE386" s="3"/>
     </row>
-    <row r="387" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -23156,7 +23170,7 @@
       <c r="BD387" s="3"/>
       <c r="BE387" s="3"/>
     </row>
-    <row r="388" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
@@ -23213,7 +23227,7 @@
       <c r="BD388" s="3"/>
       <c r="BE388" s="3"/>
     </row>
-    <row r="389" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
@@ -23270,7 +23284,7 @@
       <c r="BD389" s="3"/>
       <c r="BE389" s="3"/>
     </row>
-    <row r="390" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
@@ -23327,7 +23341,7 @@
       <c r="BD390" s="3"/>
       <c r="BE390" s="3"/>
     </row>
-    <row r="391" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
@@ -23384,7 +23398,7 @@
       <c r="BD391" s="3"/>
       <c r="BE391" s="3"/>
     </row>
-    <row r="392" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
@@ -23441,7 +23455,7 @@
       <c r="BD392" s="3"/>
       <c r="BE392" s="3"/>
     </row>
-    <row r="393" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
@@ -23498,7 +23512,7 @@
       <c r="BD393" s="3"/>
       <c r="BE393" s="3"/>
     </row>
-    <row r="394" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
@@ -23555,7 +23569,7 @@
       <c r="BD394" s="3"/>
       <c r="BE394" s="3"/>
     </row>
-    <row r="395" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
@@ -23612,7 +23626,7 @@
       <c r="BD395" s="3"/>
       <c r="BE395" s="3"/>
     </row>
-    <row r="396" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
@@ -23669,7 +23683,7 @@
       <c r="BD396" s="3"/>
       <c r="BE396" s="3"/>
     </row>
-    <row r="397" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
@@ -23726,7 +23740,7 @@
       <c r="BD397" s="3"/>
       <c r="BE397" s="3"/>
     </row>
-    <row r="398" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
@@ -23783,7 +23797,7 @@
       <c r="BD398" s="3"/>
       <c r="BE398" s="3"/>
     </row>
-    <row r="399" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
@@ -23840,7 +23854,7 @@
       <c r="BD399" s="3"/>
       <c r="BE399" s="3"/>
     </row>
-    <row r="400" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
@@ -23897,7 +23911,7 @@
       <c r="BD400" s="3"/>
       <c r="BE400" s="3"/>
     </row>
-    <row r="401" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
@@ -23954,7 +23968,7 @@
       <c r="BD401" s="3"/>
       <c r="BE401" s="3"/>
     </row>
-    <row r="402" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
@@ -24011,7 +24025,7 @@
       <c r="BD402" s="3"/>
       <c r="BE402" s="3"/>
     </row>
-    <row r="403" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
@@ -24068,7 +24082,7 @@
       <c r="BD403" s="3"/>
       <c r="BE403" s="3"/>
     </row>
-    <row r="404" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
@@ -24125,7 +24139,7 @@
       <c r="BD404" s="3"/>
       <c r="BE404" s="3"/>
     </row>
-    <row r="405" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
@@ -24182,7 +24196,7 @@
       <c r="BD405" s="3"/>
       <c r="BE405" s="3"/>
     </row>
-    <row r="406" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
@@ -24239,7 +24253,7 @@
       <c r="BD406" s="3"/>
       <c r="BE406" s="3"/>
     </row>
-    <row r="407" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
@@ -24296,7 +24310,7 @@
       <c r="BD407" s="3"/>
       <c r="BE407" s="3"/>
     </row>
-    <row r="408" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
@@ -24353,7 +24367,7 @@
       <c r="BD408" s="3"/>
       <c r="BE408" s="3"/>
     </row>
-    <row r="409" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
@@ -24410,7 +24424,7 @@
       <c r="BD409" s="3"/>
       <c r="BE409" s="3"/>
     </row>
-    <row r="410" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
@@ -24467,7 +24481,7 @@
       <c r="BD410" s="3"/>
       <c r="BE410" s="3"/>
     </row>
-    <row r="411" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
@@ -24524,7 +24538,7 @@
       <c r="BD411" s="3"/>
       <c r="BE411" s="3"/>
     </row>
-    <row r="412" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
@@ -24581,7 +24595,7 @@
       <c r="BD412" s="3"/>
       <c r="BE412" s="3"/>
     </row>
-    <row r="413" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
@@ -24638,7 +24652,7 @@
       <c r="BD413" s="3"/>
       <c r="BE413" s="3"/>
     </row>
-    <row r="414" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
@@ -24695,7 +24709,7 @@
       <c r="BD414" s="3"/>
       <c r="BE414" s="3"/>
     </row>
-    <row r="415" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
@@ -24752,7 +24766,7 @@
       <c r="BD415" s="3"/>
       <c r="BE415" s="3"/>
     </row>
-    <row r="416" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
@@ -24809,7 +24823,7 @@
       <c r="BD416" s="3"/>
       <c r="BE416" s="3"/>
     </row>
-    <row r="417" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
@@ -24866,7 +24880,7 @@
       <c r="BD417" s="3"/>
       <c r="BE417" s="3"/>
     </row>
-    <row r="418" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
@@ -24923,7 +24937,7 @@
       <c r="BD418" s="3"/>
       <c r="BE418" s="3"/>
     </row>
-    <row r="419" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
@@ -24980,7 +24994,7 @@
       <c r="BD419" s="3"/>
       <c r="BE419" s="3"/>
     </row>
-    <row r="420" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
@@ -25037,7 +25051,7 @@
       <c r="BD420" s="3"/>
       <c r="BE420" s="3"/>
     </row>
-    <row r="421" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
@@ -25094,7 +25108,7 @@
       <c r="BD421" s="3"/>
       <c r="BE421" s="3"/>
     </row>
-    <row r="422" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
@@ -25151,7 +25165,7 @@
       <c r="BD422" s="3"/>
       <c r="BE422" s="3"/>
     </row>
-    <row r="423" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
@@ -25208,7 +25222,7 @@
       <c r="BD423" s="3"/>
       <c r="BE423" s="3"/>
     </row>
-    <row r="424" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
@@ -25265,7 +25279,7 @@
       <c r="BD424" s="3"/>
       <c r="BE424" s="3"/>
     </row>
-    <row r="425" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
@@ -25322,7 +25336,7 @@
       <c r="BD425" s="3"/>
       <c r="BE425" s="3"/>
     </row>
-    <row r="426" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
@@ -25379,7 +25393,7 @@
       <c r="BD426" s="3"/>
       <c r="BE426" s="3"/>
     </row>
-    <row r="427" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
@@ -25436,7 +25450,7 @@
       <c r="BD427" s="3"/>
       <c r="BE427" s="3"/>
     </row>
-    <row r="428" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
@@ -25493,7 +25507,7 @@
       <c r="BD428" s="3"/>
       <c r="BE428" s="3"/>
     </row>
-    <row r="429" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
@@ -25550,7 +25564,7 @@
       <c r="BD429" s="3"/>
       <c r="BE429" s="3"/>
     </row>
-    <row r="430" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
@@ -25607,7 +25621,7 @@
       <c r="BD430" s="3"/>
       <c r="BE430" s="3"/>
     </row>
-    <row r="431" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
@@ -25664,7 +25678,7 @@
       <c r="BD431" s="3"/>
       <c r="BE431" s="3"/>
     </row>
-    <row r="432" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
@@ -25721,7 +25735,7 @@
       <c r="BD432" s="3"/>
       <c r="BE432" s="3"/>
     </row>
-    <row r="433" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
@@ -25778,7 +25792,7 @@
       <c r="BD433" s="3"/>
       <c r="BE433" s="3"/>
     </row>
-    <row r="434" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
@@ -25835,7 +25849,7 @@
       <c r="BD434" s="3"/>
       <c r="BE434" s="3"/>
     </row>
-    <row r="435" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
@@ -25892,7 +25906,7 @@
       <c r="BD435" s="3"/>
       <c r="BE435" s="3"/>
     </row>
-    <row r="436" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
@@ -25949,7 +25963,7 @@
       <c r="BD436" s="3"/>
       <c r="BE436" s="3"/>
     </row>
-    <row r="437" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
@@ -26006,7 +26020,7 @@
       <c r="BD437" s="3"/>
       <c r="BE437" s="3"/>
     </row>
-    <row r="438" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
@@ -26063,7 +26077,7 @@
       <c r="BD438" s="3"/>
       <c r="BE438" s="3"/>
     </row>
-    <row r="439" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
@@ -26120,7 +26134,7 @@
       <c r="BD439" s="3"/>
       <c r="BE439" s="3"/>
     </row>
-    <row r="440" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
@@ -26177,7 +26191,7 @@
       <c r="BD440" s="3"/>
       <c r="BE440" s="3"/>
     </row>
-    <row r="441" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
@@ -26234,7 +26248,7 @@
       <c r="BD441" s="3"/>
       <c r="BE441" s="3"/>
     </row>
-    <row r="442" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
@@ -26291,7 +26305,7 @@
       <c r="BD442" s="3"/>
       <c r="BE442" s="3"/>
     </row>
-    <row r="443" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
@@ -26348,7 +26362,7 @@
       <c r="BD443" s="3"/>
       <c r="BE443" s="3"/>
     </row>
-    <row r="444" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
@@ -26405,7 +26419,7 @@
       <c r="BD444" s="3"/>
       <c r="BE444" s="3"/>
     </row>
-    <row r="445" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
@@ -26462,7 +26476,7 @@
       <c r="BD445" s="3"/>
       <c r="BE445" s="3"/>
     </row>
-    <row r="446" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
@@ -26519,7 +26533,7 @@
       <c r="BD446" s="3"/>
       <c r="BE446" s="3"/>
     </row>
-    <row r="447" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
@@ -26576,7 +26590,7 @@
       <c r="BD447" s="3"/>
       <c r="BE447" s="3"/>
     </row>
-    <row r="448" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
@@ -26633,7 +26647,7 @@
       <c r="BD448" s="3"/>
       <c r="BE448" s="3"/>
     </row>
-    <row r="449" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
@@ -26690,7 +26704,7 @@
       <c r="BD449" s="3"/>
       <c r="BE449" s="3"/>
     </row>
-    <row r="450" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
@@ -26747,7 +26761,7 @@
       <c r="BD450" s="3"/>
       <c r="BE450" s="3"/>
     </row>
-    <row r="451" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
@@ -26804,7 +26818,7 @@
       <c r="BD451" s="3"/>
       <c r="BE451" s="3"/>
     </row>
-    <row r="452" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
@@ -26861,7 +26875,7 @@
       <c r="BD452" s="3"/>
       <c r="BE452" s="3"/>
     </row>
-    <row r="453" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
@@ -26918,7 +26932,7 @@
       <c r="BD453" s="3"/>
       <c r="BE453" s="3"/>
     </row>
-    <row r="454" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
@@ -26975,7 +26989,7 @@
       <c r="BD454" s="3"/>
       <c r="BE454" s="3"/>
     </row>
-    <row r="455" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
@@ -27032,7 +27046,7 @@
       <c r="BD455" s="3"/>
       <c r="BE455" s="3"/>
     </row>
-    <row r="456" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
@@ -27089,7 +27103,7 @@
       <c r="BD456" s="3"/>
       <c r="BE456" s="3"/>
     </row>
-    <row r="457" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
@@ -27146,7 +27160,7 @@
       <c r="BD457" s="3"/>
       <c r="BE457" s="3"/>
     </row>
-    <row r="458" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
@@ -27203,7 +27217,7 @@
       <c r="BD458" s="3"/>
       <c r="BE458" s="3"/>
     </row>
-    <row r="459" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
@@ -27260,7 +27274,7 @@
       <c r="BD459" s="3"/>
       <c r="BE459" s="3"/>
     </row>
-    <row r="460" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
@@ -27317,7 +27331,7 @@
       <c r="BD460" s="3"/>
       <c r="BE460" s="3"/>
     </row>
-    <row r="461" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
@@ -27374,7 +27388,7 @@
       <c r="BD461" s="3"/>
       <c r="BE461" s="3"/>
     </row>
-    <row r="462" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
@@ -27431,7 +27445,7 @@
       <c r="BD462" s="3"/>
       <c r="BE462" s="3"/>
     </row>
-    <row r="463" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
@@ -27488,7 +27502,7 @@
       <c r="BD463" s="3"/>
       <c r="BE463" s="3"/>
     </row>
-    <row r="464" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
@@ -27545,7 +27559,7 @@
       <c r="BD464" s="3"/>
       <c r="BE464" s="3"/>
     </row>
-    <row r="465" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
@@ -27602,7 +27616,7 @@
       <c r="BD465" s="3"/>
       <c r="BE465" s="3"/>
     </row>
-    <row r="466" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
@@ -27659,7 +27673,7 @@
       <c r="BD466" s="3"/>
       <c r="BE466" s="3"/>
     </row>
-    <row r="467" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
@@ -27716,7 +27730,7 @@
       <c r="BD467" s="3"/>
       <c r="BE467" s="3"/>
     </row>
-    <row r="468" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
@@ -27773,7 +27787,7 @@
       <c r="BD468" s="3"/>
       <c r="BE468" s="3"/>
     </row>
-    <row r="469" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
@@ -27830,7 +27844,7 @@
       <c r="BD469" s="3"/>
       <c r="BE469" s="3"/>
     </row>
-    <row r="470" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
@@ -27887,7 +27901,7 @@
       <c r="BD470" s="3"/>
       <c r="BE470" s="3"/>
     </row>
-    <row r="471" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
@@ -27944,7 +27958,7 @@
       <c r="BD471" s="3"/>
       <c r="BE471" s="3"/>
     </row>
-    <row r="472" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
@@ -28001,7 +28015,7 @@
       <c r="BD472" s="3"/>
       <c r="BE472" s="3"/>
     </row>
-    <row r="473" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
@@ -28058,7 +28072,7 @@
       <c r="BD473" s="3"/>
       <c r="BE473" s="3"/>
     </row>
-    <row r="474" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
@@ -28115,7 +28129,7 @@
       <c r="BD474" s="3"/>
       <c r="BE474" s="3"/>
     </row>
-    <row r="475" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
@@ -28172,7 +28186,7 @@
       <c r="BD475" s="3"/>
       <c r="BE475" s="3"/>
     </row>
-    <row r="476" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
@@ -28229,7 +28243,7 @@
       <c r="BD476" s="3"/>
       <c r="BE476" s="3"/>
     </row>
-    <row r="477" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
@@ -28286,7 +28300,7 @@
       <c r="BD477" s="3"/>
       <c r="BE477" s="3"/>
     </row>
-    <row r="478" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
@@ -28343,7 +28357,7 @@
       <c r="BD478" s="3"/>
       <c r="BE478" s="3"/>
     </row>
-    <row r="479" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
@@ -28400,7 +28414,7 @@
       <c r="BD479" s="3"/>
       <c r="BE479" s="3"/>
     </row>
-    <row r="480" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
@@ -28457,7 +28471,7 @@
       <c r="BD480" s="3"/>
       <c r="BE480" s="3"/>
     </row>
-    <row r="481" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
@@ -28514,7 +28528,7 @@
       <c r="BD481" s="3"/>
       <c r="BE481" s="3"/>
     </row>
-    <row r="482" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
@@ -28571,7 +28585,7 @@
       <c r="BD482" s="3"/>
       <c r="BE482" s="3"/>
     </row>
-    <row r="483" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
@@ -28628,7 +28642,7 @@
       <c r="BD483" s="3"/>
       <c r="BE483" s="3"/>
     </row>
-    <row r="484" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
@@ -28685,7 +28699,7 @@
       <c r="BD484" s="3"/>
       <c r="BE484" s="3"/>
     </row>
-    <row r="485" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
@@ -28742,7 +28756,7 @@
       <c r="BD485" s="3"/>
       <c r="BE485" s="3"/>
     </row>
-    <row r="486" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
@@ -28799,7 +28813,7 @@
       <c r="BD486" s="3"/>
       <c r="BE486" s="3"/>
     </row>
-    <row r="487" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
@@ -28856,7 +28870,7 @@
       <c r="BD487" s="3"/>
       <c r="BE487" s="3"/>
     </row>
-    <row r="488" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
@@ -28913,7 +28927,7 @@
       <c r="BD488" s="3"/>
       <c r="BE488" s="3"/>
     </row>
-    <row r="489" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
@@ -28970,7 +28984,7 @@
       <c r="BD489" s="3"/>
       <c r="BE489" s="3"/>
     </row>
-    <row r="490" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
@@ -29027,7 +29041,7 @@
       <c r="BD490" s="3"/>
       <c r="BE490" s="3"/>
     </row>
-    <row r="491" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
@@ -29084,7 +29098,7 @@
       <c r="BD491" s="3"/>
       <c r="BE491" s="3"/>
     </row>
-    <row r="492" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
@@ -29141,7 +29155,7 @@
       <c r="BD492" s="3"/>
       <c r="BE492" s="3"/>
     </row>
-    <row r="493" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
@@ -29198,7 +29212,7 @@
       <c r="BD493" s="3"/>
       <c r="BE493" s="3"/>
     </row>
-    <row r="494" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
@@ -29255,7 +29269,7 @@
       <c r="BD494" s="3"/>
       <c r="BE494" s="3"/>
     </row>
-    <row r="495" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
@@ -29312,7 +29326,7 @@
       <c r="BD495" s="3"/>
       <c r="BE495" s="3"/>
     </row>
-    <row r="496" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
@@ -29369,7 +29383,7 @@
       <c r="BD496" s="3"/>
       <c r="BE496" s="3"/>
     </row>
-    <row r="497" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
@@ -29426,7 +29440,7 @@
       <c r="BD497" s="3"/>
       <c r="BE497" s="3"/>
     </row>
-    <row r="498" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
@@ -29483,7 +29497,7 @@
       <c r="BD498" s="3"/>
       <c r="BE498" s="3"/>
     </row>
-    <row r="499" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
@@ -29540,7 +29554,7 @@
       <c r="BD499" s="3"/>
       <c r="BE499" s="3"/>
     </row>
-    <row r="500" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
@@ -29597,7 +29611,7 @@
       <c r="BD500" s="3"/>
       <c r="BE500" s="3"/>
     </row>
-    <row r="501" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
@@ -29654,7 +29668,7 @@
       <c r="BD501" s="3"/>
       <c r="BE501" s="3"/>
     </row>
-    <row r="502" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
@@ -29711,7 +29725,7 @@
       <c r="BD502" s="3"/>
       <c r="BE502" s="3"/>
     </row>
-    <row r="503" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
@@ -29768,7 +29782,7 @@
       <c r="BD503" s="3"/>
       <c r="BE503" s="3"/>
     </row>
-    <row r="504" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
@@ -29825,7 +29839,7 @@
       <c r="BD504" s="3"/>
       <c r="BE504" s="3"/>
     </row>
-    <row r="505" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
@@ -29882,7 +29896,7 @@
       <c r="BD505" s="3"/>
       <c r="BE505" s="3"/>
     </row>
-    <row r="506" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
@@ -29939,7 +29953,7 @@
       <c r="BD506" s="3"/>
       <c r="BE506" s="3"/>
     </row>
-    <row r="507" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
@@ -29996,7 +30010,7 @@
       <c r="BD507" s="3"/>
       <c r="BE507" s="3"/>
     </row>
-    <row r="508" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
@@ -30053,7 +30067,7 @@
       <c r="BD508" s="3"/>
       <c r="BE508" s="3"/>
     </row>
-    <row r="509" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
@@ -30110,7 +30124,7 @@
       <c r="BD509" s="3"/>
       <c r="BE509" s="3"/>
     </row>
-    <row r="510" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
@@ -30167,7 +30181,7 @@
       <c r="BD510" s="3"/>
       <c r="BE510" s="3"/>
     </row>
-    <row r="511" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
@@ -30224,7 +30238,7 @@
       <c r="BD511" s="3"/>
       <c r="BE511" s="3"/>
     </row>
-    <row r="512" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
@@ -30281,7 +30295,7 @@
       <c r="BD512" s="3"/>
       <c r="BE512" s="3"/>
     </row>
-    <row r="513" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
@@ -30338,7 +30352,7 @@
       <c r="BD513" s="3"/>
       <c r="BE513" s="3"/>
     </row>
-    <row r="514" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
@@ -30395,7 +30409,7 @@
       <c r="BD514" s="3"/>
       <c r="BE514" s="3"/>
     </row>
-    <row r="515" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
@@ -30452,7 +30466,7 @@
       <c r="BD515" s="3"/>
       <c r="BE515" s="3"/>
     </row>
-    <row r="516" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
@@ -30509,7 +30523,7 @@
       <c r="BD516" s="3"/>
       <c r="BE516" s="3"/>
     </row>
-    <row r="517" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
@@ -30566,7 +30580,7 @@
       <c r="BD517" s="3"/>
       <c r="BE517" s="3"/>
     </row>
-    <row r="518" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
@@ -30623,7 +30637,7 @@
       <c r="BD518" s="3"/>
       <c r="BE518" s="3"/>
     </row>
-    <row r="519" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
@@ -30680,7 +30694,7 @@
       <c r="BD519" s="3"/>
       <c r="BE519" s="3"/>
     </row>
-    <row r="520" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
@@ -30737,7 +30751,7 @@
       <c r="BD520" s="3"/>
       <c r="BE520" s="3"/>
     </row>
-    <row r="521" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
@@ -30794,7 +30808,7 @@
       <c r="BD521" s="3"/>
       <c r="BE521" s="3"/>
     </row>
-    <row r="522" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
@@ -30851,7 +30865,7 @@
       <c r="BD522" s="3"/>
       <c r="BE522" s="3"/>
     </row>
-    <row r="523" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
@@ -30908,7 +30922,7 @@
       <c r="BD523" s="3"/>
       <c r="BE523" s="3"/>
     </row>
-    <row r="524" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
@@ -30965,7 +30979,7 @@
       <c r="BD524" s="3"/>
       <c r="BE524" s="3"/>
     </row>
-    <row r="525" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
@@ -31022,7 +31036,7 @@
       <c r="BD525" s="3"/>
       <c r="BE525" s="3"/>
     </row>
-    <row r="526" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
@@ -31079,7 +31093,7 @@
       <c r="BD526" s="3"/>
       <c r="BE526" s="3"/>
     </row>
-    <row r="527" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
@@ -31136,7 +31150,7 @@
       <c r="BD527" s="3"/>
       <c r="BE527" s="3"/>
     </row>
-    <row r="528" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
@@ -31193,7 +31207,7 @@
       <c r="BD528" s="3"/>
       <c r="BE528" s="3"/>
     </row>
-    <row r="529" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
@@ -31250,7 +31264,7 @@
       <c r="BD529" s="3"/>
       <c r="BE529" s="3"/>
     </row>
-    <row r="530" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
@@ -31307,7 +31321,7 @@
       <c r="BD530" s="3"/>
       <c r="BE530" s="3"/>
     </row>
-    <row r="531" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
@@ -31364,7 +31378,7 @@
       <c r="BD531" s="3"/>
       <c r="BE531" s="3"/>
     </row>
-    <row r="532" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
@@ -31421,7 +31435,7 @@
       <c r="BD532" s="3"/>
       <c r="BE532" s="3"/>
     </row>
-    <row r="533" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
       <c r="E533" s="3"/>
@@ -31478,7 +31492,7 @@
       <c r="BD533" s="3"/>
       <c r="BE533" s="3"/>
     </row>
-    <row r="534" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
       <c r="E534" s="3"/>
@@ -31535,7 +31549,7 @@
       <c r="BD534" s="3"/>
       <c r="BE534" s="3"/>
     </row>
-    <row r="535" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
@@ -31592,7 +31606,7 @@
       <c r="BD535" s="3"/>
       <c r="BE535" s="3"/>
     </row>
-    <row r="536" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
       <c r="E536" s="3"/>
@@ -31649,7 +31663,7 @@
       <c r="BD536" s="3"/>
       <c r="BE536" s="3"/>
     </row>
-    <row r="537" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
       <c r="E537" s="3"/>
@@ -31706,7 +31720,7 @@
       <c r="BD537" s="3"/>
       <c r="BE537" s="3"/>
     </row>
-    <row r="538" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
       <c r="E538" s="3"/>
@@ -31763,7 +31777,7 @@
       <c r="BD538" s="3"/>
       <c r="BE538" s="3"/>
     </row>
-    <row r="539" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
       <c r="E539" s="3"/>
@@ -31820,7 +31834,7 @@
       <c r="BD539" s="3"/>
       <c r="BE539" s="3"/>
     </row>
-    <row r="540" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
@@ -31877,7 +31891,7 @@
       <c r="BD540" s="3"/>
       <c r="BE540" s="3"/>
     </row>
-    <row r="541" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C541" s="3"/>
       <c r="D541" s="3"/>
       <c r="E541" s="3"/>
@@ -31934,7 +31948,7 @@
       <c r="BD541" s="3"/>
       <c r="BE541" s="3"/>
     </row>
-    <row r="542" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C542" s="3"/>
       <c r="D542" s="3"/>
       <c r="E542" s="3"/>
@@ -31991,7 +32005,7 @@
       <c r="BD542" s="3"/>
       <c r="BE542" s="3"/>
     </row>
-    <row r="543" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C543" s="3"/>
       <c r="D543" s="3"/>
       <c r="E543" s="3"/>
@@ -32048,7 +32062,7 @@
       <c r="BD543" s="3"/>
       <c r="BE543" s="3"/>
     </row>
-    <row r="544" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
       <c r="E544" s="3"/>
@@ -32105,7 +32119,7 @@
       <c r="BD544" s="3"/>
       <c r="BE544" s="3"/>
     </row>
-    <row r="545" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C545" s="3"/>
       <c r="D545" s="3"/>
       <c r="E545" s="3"/>
@@ -32162,7 +32176,7 @@
       <c r="BD545" s="3"/>
       <c r="BE545" s="3"/>
     </row>
-    <row r="546" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C546" s="3"/>
       <c r="D546" s="3"/>
       <c r="E546" s="3"/>
@@ -32219,7 +32233,7 @@
       <c r="BD546" s="3"/>
       <c r="BE546" s="3"/>
     </row>
-    <row r="547" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C547" s="3"/>
       <c r="D547" s="3"/>
       <c r="E547" s="3"/>
@@ -32276,7 +32290,7 @@
       <c r="BD547" s="3"/>
       <c r="BE547" s="3"/>
     </row>
-    <row r="548" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C548" s="3"/>
       <c r="D548" s="3"/>
       <c r="E548" s="3"/>
@@ -32333,7 +32347,7 @@
       <c r="BD548" s="3"/>
       <c r="BE548" s="3"/>
     </row>
-    <row r="549" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C549" s="3"/>
       <c r="D549" s="3"/>
       <c r="E549" s="3"/>
@@ -32390,7 +32404,7 @@
       <c r="BD549" s="3"/>
       <c r="BE549" s="3"/>
     </row>
-    <row r="550" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C550" s="3"/>
       <c r="D550" s="3"/>
       <c r="E550" s="3"/>
@@ -32447,7 +32461,7 @@
       <c r="BD550" s="3"/>
       <c r="BE550" s="3"/>
     </row>
-    <row r="551" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C551" s="3"/>
       <c r="D551" s="3"/>
       <c r="E551" s="3"/>
@@ -32504,7 +32518,7 @@
       <c r="BD551" s="3"/>
       <c r="BE551" s="3"/>
     </row>
-    <row r="552" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C552" s="3"/>
       <c r="D552" s="3"/>
       <c r="E552" s="3"/>
@@ -32561,7 +32575,7 @@
       <c r="BD552" s="3"/>
       <c r="BE552" s="3"/>
     </row>
-    <row r="553" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C553" s="3"/>
       <c r="D553" s="3"/>
       <c r="E553" s="3"/>
@@ -32618,7 +32632,7 @@
       <c r="BD553" s="3"/>
       <c r="BE553" s="3"/>
     </row>
-    <row r="554" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C554" s="3"/>
       <c r="D554" s="3"/>
       <c r="E554" s="3"/>
@@ -32675,7 +32689,7 @@
       <c r="BD554" s="3"/>
       <c r="BE554" s="3"/>
     </row>
-    <row r="555" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C555" s="3"/>
       <c r="D555" s="3"/>
       <c r="E555" s="3"/>
@@ -32732,7 +32746,7 @@
       <c r="BD555" s="3"/>
       <c r="BE555" s="3"/>
     </row>
-    <row r="556" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C556" s="3"/>
       <c r="D556" s="3"/>
       <c r="E556" s="3"/>
@@ -32789,7 +32803,7 @@
       <c r="BD556" s="3"/>
       <c r="BE556" s="3"/>
     </row>
-    <row r="557" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C557" s="3"/>
       <c r="D557" s="3"/>
       <c r="E557" s="3"/>
@@ -32846,7 +32860,7 @@
       <c r="BD557" s="3"/>
       <c r="BE557" s="3"/>
     </row>
-    <row r="558" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C558" s="3"/>
       <c r="D558" s="3"/>
       <c r="E558" s="3"/>
@@ -32903,7 +32917,7 @@
       <c r="BD558" s="3"/>
       <c r="BE558" s="3"/>
     </row>
-    <row r="559" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
       <c r="E559" s="3"/>
@@ -32960,7 +32974,7 @@
       <c r="BD559" s="3"/>
       <c r="BE559" s="3"/>
     </row>
-    <row r="560" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:57" x14ac:dyDescent="0.2">
       <c r="C560" s="3"/>
       <c r="D560" s="3"/>
       <c r="E560" s="3"/>
